--- a/ZPD_Latvija_kopsavilkums.xlsx
+++ b/ZPD_Latvija_kopsavilkums.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katri\Desktop\Maija ZPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maija Anna Ramāna\Documents\Maija_un_Linda_ZPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02BE6E9-D50A-4E53-8F59-8901A94B789B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47A4EE-C9DF-4429-83D7-8EB5ED9CB31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>GPS N</t>
   </si>
@@ -50,6 +63,9 @@
   </si>
   <si>
     <t>Invalid Data</t>
+  </si>
+  <si>
+    <t>B (total) error</t>
   </si>
 </sst>
 </file>
@@ -140,7 +156,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="lv-LV" baseline="0"/>
-              <a:t> AVG pret NPS N</a:t>
+              <a:t> AVG pret GPS N</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -234,6 +250,63 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:strRef>
               <c:f>Results!$A$2:$A$61</c:f>
@@ -11749,14 +11822,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>445064</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143085</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -11785,16 +11858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>439138</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>134337</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11821,16 +11894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>418536</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>67874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113735</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:rowOff>67874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11857,14 +11930,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143085</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>445064</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -11893,16 +11966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144215</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>46143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>446194</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>46143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11929,16 +12002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>136594</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438573</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11965,16 +12038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375073</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>118658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>70273</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>118658</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12001,16 +12074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>203150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>508448</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12463,15 +12536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z48" sqref="Z48"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12499,8 +12572,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>57.865429200000001</v>
       </c>
@@ -12528,8 +12604,12 @@
       <c r="I2">
         <v>0.84698425635247598</v>
       </c>
+      <c r="J2">
+        <f>SQRT((D2/C2*G2)^2+(E2/C2*H2)^2+(F2/C2*I2)^2)</f>
+        <v>1.4271036787328639</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>57.865429200000001</v>
       </c>
@@ -12557,8 +12637,12 @@
       <c r="I3">
         <v>0.64488488578496095</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J61" si="0">SQRT((D3/C3*G3)^2+(E3/C3*H3)^2+(F3/C3*I3)^2)</f>
+        <v>0.32115868691885952</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>57.862904200000003</v>
       </c>
@@ -12586,8 +12670,12 @@
       <c r="I4">
         <v>1.24523740385038</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.78098477448762993</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>57.862904200000003</v>
       </c>
@@ -12615,8 +12703,12 @@
       <c r="I5">
         <v>0.75302631850449497</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.93914006025806751</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>57.861323300000002</v>
       </c>
@@ -12644,8 +12736,12 @@
       <c r="I6">
         <v>0.64388268915980895</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.931820580913853</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>57.1404633</v>
       </c>
@@ -12673,8 +12769,12 @@
       <c r="I7">
         <v>0.80492609956858796</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.75475921243769584</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>57.1404633</v>
       </c>
@@ -12702,8 +12802,12 @@
       <c r="I8">
         <v>0.77647114469696898</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.40391000574114683</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>57.1404633</v>
       </c>
@@ -12731,8 +12835,12 @@
       <c r="I9">
         <v>1.0069432801137499</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.6499610856520208</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>57.705918099999998</v>
       </c>
@@ -12760,8 +12868,12 @@
       <c r="I10">
         <v>0.66550839634343395</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.62279825531447197</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>57.705918099999998</v>
       </c>
@@ -12789,8 +12901,12 @@
       <c r="I11">
         <v>0.883643483855581</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.73463828830394284</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>57.705918099999998</v>
       </c>
@@ -12818,8 +12934,12 @@
       <c r="I12">
         <v>0.515793319264786</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.27106123643657637</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>57.706349600000003</v>
       </c>
@@ -12847,8 +12967,12 @@
       <c r="I13">
         <v>0.681610588295959</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.2629152001494239</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>57.706349600000003</v>
       </c>
@@ -12876,8 +13000,12 @@
       <c r="I14">
         <v>0.71563687811763199</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.36973922071746423</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>57.7032691</v>
       </c>
@@ -12905,8 +13033,12 @@
       <c r="I15">
         <v>0.79234670591593603</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.92558728928670975</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>57.7032691</v>
       </c>
@@ -12934,8 +13066,12 @@
       <c r="I16">
         <v>0.77968804687047899</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.5444607559929161</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>57.613554100000002</v>
       </c>
@@ -12963,8 +13099,12 @@
       <c r="I17">
         <v>0.79811418874941997</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.1394143134203552</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>57.613554100000002</v>
       </c>
@@ -12992,8 +13132,12 @@
       <c r="I18">
         <v>2.0138186142416798</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.9040068432749342</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>57.613554100000002</v>
       </c>
@@ -13021,8 +13165,12 @@
       <c r="I19">
         <v>0.87946220432144095</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.56348615173377181</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>57.613046099999998</v>
       </c>
@@ -13050,8 +13198,12 @@
       <c r="I20">
         <v>1.0407700907945501</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2.0888151038295759</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>57.613046099999998</v>
       </c>
@@ -13079,8 +13231,12 @@
       <c r="I21">
         <v>0.90333535191683001</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.96699159108172705</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>57.465741399999999</v>
       </c>
@@ -13108,8 +13264,12 @@
       <c r="I22">
         <v>0.68415751570938899</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.80173671847500105</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>57.465741399999999</v>
       </c>
@@ -13137,8 +13297,12 @@
       <c r="I23">
         <v>0.67587477749217595</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.34414224226771922</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -13166,8 +13330,12 @@
       <c r="I24">
         <v>0.84491173424003196</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.0414942153717619</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -13195,8 +13363,12 @@
       <c r="I25">
         <v>0.67628170933904497</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.36239777524874528</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>57.465741399999999</v>
       </c>
@@ -13224,8 +13396,12 @@
       <c r="I26">
         <v>0.734797209996773</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.2738180273930817</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>57.404880900000002</v>
       </c>
@@ -13253,8 +13429,12 @@
       <c r="I27">
         <v>0.69658342722684596</v>
       </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.40700841414346589</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>57.404880900000002</v>
       </c>
@@ -13282,8 +13462,12 @@
       <c r="I28">
         <v>0.67178431014500295</v>
       </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.33757552224621334</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>57.404880900000002</v>
       </c>
@@ -13311,8 +13495,12 @@
       <c r="I29">
         <v>0.49750113823569603</v>
       </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.32719438696072428</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>57.404994000000002</v>
       </c>
@@ -13340,8 +13528,12 @@
       <c r="I30">
         <v>1.1475997709816601</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.56593414808808273</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>57.404994000000002</v>
       </c>
@@ -13369,8 +13561,12 @@
       <c r="I31">
         <v>0.660403947867234</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.28641696262175931</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>57.405103199999999</v>
       </c>
@@ -13398,8 +13594,12 @@
       <c r="I32">
         <v>0.89855485797527501</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.1412906986079159</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>57.405103199999999</v>
       </c>
@@ -13427,8 +13627,12 @@
       <c r="I33">
         <v>0.88298229189705801</v>
       </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.53566571065395796</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>57.404880900000002</v>
       </c>
@@ -13456,8 +13660,12 @@
       <c r="I34">
         <v>0.81415240533344202</v>
       </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.93189721327535391</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>57.3344959</v>
       </c>
@@ -13485,8 +13693,12 @@
       <c r="I35">
         <v>0.69538524721376604</v>
       </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.76162861193130149</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>57.3344959</v>
       </c>
@@ -13514,8 +13726,12 @@
       <c r="I36">
         <v>0.703024193225951</v>
       </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.39853184877337128</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>57.3344959</v>
       </c>
@@ -13543,8 +13759,12 @@
       <c r="I37">
         <v>0.614525283461545</v>
       </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.31137178420133133</v>
+      </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>57.333713400000001</v>
       </c>
@@ -13572,8 +13792,12 @@
       <c r="I38">
         <v>0.78485441235497</v>
       </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.82262925322810043</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>57.333713400000001</v>
       </c>
@@ -13601,8 +13825,12 @@
       <c r="I39">
         <v>0.66200679726519596</v>
       </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.44773842592861718</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>57.333713400000001</v>
       </c>
@@ -13630,8 +13858,12 @@
       <c r="I40">
         <v>0.69076518163570799</v>
       </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.34667095085583716</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>57.3334221</v>
       </c>
@@ -13659,8 +13891,12 @@
       <c r="I41">
         <v>0.76007408814621602</v>
       </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1.1187124183457553</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>57.3334221</v>
       </c>
@@ -13688,8 +13924,12 @@
       <c r="I42">
         <v>1.0280796780682899</v>
       </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>1.1077877370927061</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>57.3334221</v>
       </c>
@@ -13717,8 +13957,12 @@
       <c r="I43">
         <v>0.73792450453220904</v>
       </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0.85403495211597469</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>57.287456599999999</v>
       </c>
@@ -13746,8 +13990,12 @@
       <c r="I44">
         <v>0.91921464451443302</v>
       </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1.4686978163933548</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>57.287456599999999</v>
       </c>
@@ -13775,8 +14023,12 @@
       <c r="I45">
         <v>0.77526250875734604</v>
       </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0.76713049521296761</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>57.287456599999999</v>
       </c>
@@ -13804,8 +14056,12 @@
       <c r="I46">
         <v>1.3213160672473201</v>
       </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.85448636724926763</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>57.286571700000003</v>
       </c>
@@ -13833,8 +14089,12 @@
       <c r="I47">
         <v>0.81973082377171802</v>
       </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.4037152072730845</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>57.286571700000003</v>
       </c>
@@ -13862,8 +14122,12 @@
       <c r="I48">
         <v>1.0005137736666001</v>
       </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.45576148639754432</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>57.286571700000003</v>
       </c>
@@ -13891,8 +14155,12 @@
       <c r="I49">
         <v>0.77910961435939696</v>
       </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.34904342021817025</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>57.224274999999999</v>
       </c>
@@ -13920,8 +14188,12 @@
       <c r="I50">
         <v>0.76096045378036403</v>
       </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>0.79614583860293686</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>57.223489499999999</v>
       </c>
@@ -13949,8 +14221,12 @@
       <c r="I51">
         <v>0.99849452898145596</v>
       </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1.661934030131248</v>
+      </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>57.223489499999999</v>
       </c>
@@ -13978,8 +14254,12 @@
       <c r="I52">
         <v>0.74958756039505303</v>
       </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.75407467234700287</v>
+      </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>57.223489499999999</v>
       </c>
@@ -14007,8 +14287,12 @@
       <c r="I53">
         <v>0.73928772549139199</v>
       </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0.5155533843631831</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>57.226124599999999</v>
       </c>
@@ -14036,8 +14320,12 @@
       <c r="I54">
         <v>0.78320698307069403</v>
       </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0.91752860591588836</v>
+      </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>57.226124599999999</v>
       </c>
@@ -14065,8 +14353,12 @@
       <c r="I55">
         <v>1.0619123495709799</v>
       </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0.73745981396887594</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>57.224274999999999</v>
       </c>
@@ -14094,8 +14386,12 @@
       <c r="I56">
         <v>0.86065526571582296</v>
       </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1.4906764627485367</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>57.1841194</v>
       </c>
@@ -14123,8 +14419,12 @@
       <c r="I57">
         <v>0.77088434635971803</v>
       </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.77276892197791347</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57.1841194</v>
       </c>
@@ -14152,8 +14452,12 @@
       <c r="I58">
         <v>0.80552127026136999</v>
       </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.87871121902245974</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57.184800899999999</v>
       </c>
@@ -14181,8 +14485,12 @@
       <c r="I59">
         <v>0.74684855950169604</v>
       </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0.77978507046489698</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>57.184800899999999</v>
       </c>
@@ -14210,8 +14518,12 @@
       <c r="I60">
         <v>0.68679087553616502</v>
       </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0.65738550043875077</v>
+      </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>57.1841194</v>
       </c>
@@ -14238,6 +14550,10 @@
       </c>
       <c r="I61">
         <v>0.71966024075846902</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0.89241149548896881</v>
       </c>
     </row>
   </sheetData>
